--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_88.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_88.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,277 +488,287 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0572717806317251</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min', 'D:min', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:min/b7', 'A:min/6']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(28.82, 42.4)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.06, 6.451609)]</t>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+          <t>[('0:01:06.980000', '0:01:23.840000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07542426147077311</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.425</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['D/5', 'A', 'D'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(1.92, 8.32)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[('0:00:27.963197', '0:00:34.290634'), ('0:00:28.450816', '0:00:36.229501')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:02:20.580000', '0:02:23.320000'), ('0:02:18.020000', '0:02:22.340000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_95</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1229096989966555</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'C:min', 'G:min']]</t>
+          <t>[['F#:min', 'G#:min/B', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(23.02, 32.58)]</t>
+          <t>[['E:min', 'F#:min', 'B']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(51.28, 62.78)]</t>
+          <t>[('0:00:05.300000', '0:00:09.100000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:39.979523', '0:00:47.885918')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.05499181669394435</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(16.82, 23.18)]</t>
+          <t>[('0:00:50.820000', '0:01:04.980000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:02.020000', '0:00:10.620000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(17.38, 31.86)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.7, 5.28)]</t>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:01.300000', '0:01:10.460000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(97.72, 114.06)]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(10.1, 15.42)]</t>
+          <t>[('0:01:03.240000', '0:01:06.800000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:20.600000', '0:00:24.180000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -761,444 +776,404 @@
           <t>schubert-winterreise_45</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>[(3.0, 5.28)]</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:09.260000', '0:00:13.900000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[('0:00:08.300000', '0:00:12.960000'), ('0:00:00.780000', '0:00:05.260000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:14.500000', '0:01:20.420000'), ('0:00:11.700000', '0:00:20.020000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'D:min/A', 'A:min']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(2.86, 5.3), (0.38, 3.7)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02), (28.14, 36.1)]</t>
+          <t>[('0:00:42.240000', '0:01:30.860000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:49.020000', '0:01:44.600000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_263</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1066176470588235</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.07480106100795755</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'A']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'G:min7/A#']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(6.09, 13.659705)]</t>
+          <t>[['A', 'E', 'A:maj6']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(32.874217, 50.277573)]</t>
+          <t>[('0:01:09.060000', '0:01:12.500000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+          <t>[('0:00:04.511043', '0:00:10.664331')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(6.94, 15.94)]</t>
+          <t>[('0:00:16.880000', '0:00:32.500000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:01.640000', '0:00:06.700000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7556818181818181</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(46.6, 49.04)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.440395, 7.142059)]</t>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>[('0:00:27', '0:00:56.920000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_46</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7)]</t>
+          <t>[('0:00:10.360000', '0:01:59')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:07.140000', '0:01:47.600000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(88.18, 109.56)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(81.62, 103.56)]</t>
+          <t>[('0:01:00.680000', '0:01:06.800000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:04.220000', '0:01:10.300000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(66.92, 84.54)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(120.22, 121.92)]</t>
+          <t>[('0:00:13.400000', '0:01:28.140000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G/3', 'C', 'G']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(13.079206, 17.500916)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(127.6, 132.4)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:14.880000', '0:01:39.500000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
